--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409651F5-A306-D944-996B-F345307C87EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B23B3-6582-544C-A7D6-F378936397E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -80,13 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>15602689</t>
-  </si>
-  <si>
-    <t>IDO-89D</t>
-  </si>
-  <si>
-    <t>04/09/2025</t>
+    <t>40883522</t>
+  </si>
+  <si>
+    <t>B2L-001</t>
+  </si>
+  <si>
+    <t>07/05/2025</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B23B3-6582-544C-A7D6-F378936397E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5610B-DD63-F344-9C45-80A3C91F66C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -80,13 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>40883522</t>
-  </si>
-  <si>
-    <t>B2L-001</t>
-  </si>
-  <si>
-    <t>07/05/2025</t>
+    <t>92809136</t>
+  </si>
+  <si>
+    <t>PNK-54K</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5610B-DD63-F344-9C45-80A3C91F66C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC4B30-080B-6E4D-8BA5-2DE6F8BFB273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="SucripcionDesdePagos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -80,13 +80,22 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>92809136</t>
-  </si>
-  <si>
-    <t>PNK-54K</t>
-  </si>
-  <si>
-    <t>02/10/2025</t>
+    <t>71652978</t>
+  </si>
+  <si>
+    <t>QYL-703</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>47030988</t>
+  </si>
+  <si>
+    <t>IEA-666</t>
+  </si>
+  <si>
+    <t>CGP-695</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -220,6 +231,62 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -242,7 +309,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -256,67 +325,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -576,23 +585,23 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{7BE4C68F-6415-EB44-AA47-CABD61470F29}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{FFD60503-35FF-4846-9EF3-53E11E880D72}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{0A23DF46-1103-2040-B061-499C61C15C32}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{59178C0C-9E9C-0F45-A841-E71FCF9473CA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{41C4FA42-C43C-6F49-B1BC-551C789C6BD9}" name="placa"/>
     <tableColumn id="4" xr3:uid="{BCC58C21-84F0-DB40-83B5-22A752457D78}" name="numtarjeta"/>
     <tableColumn id="5" xr3:uid="{09081394-53CE-9A4F-A0EA-06CF1124AACF}" name="fecha"/>
@@ -902,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1041,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1077,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1083,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
@@ -1101,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B192EC-8D93-0348-A356-48BC997BDE79}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1138,13 +1147,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/Documents/GitHub/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC4B30-080B-6E4D-8BA5-2DE6F8BFB273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDE80E-6101-154E-ACA4-6CCD84B7FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="SucripcionDesdePagos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -80,22 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>71652978</t>
-  </si>
-  <si>
-    <t>QYL-703</t>
-  </si>
-  <si>
-    <t>07/10/2025</t>
-  </si>
-  <si>
-    <t>47030988</t>
-  </si>
-  <si>
-    <t>IEA-666</t>
-  </si>
-  <si>
-    <t>CGP-695</t>
+    <t>40975127</t>
+  </si>
+  <si>
+    <t>C3O-546</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
   </si>
 </sst>
 </file>
@@ -219,9 +210,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -231,62 +220,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -309,9 +242,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -321,134 +252,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -471,9 +274,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -487,7 +288,197 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -557,23 +548,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{DBFAE83E-781F-3F4C-A807-CF4078636BFF}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{E8B7DFC8-A566-8349-937F-5080199F4CDC}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{5116D736-6EED-674E-A8B9-8C2730954785}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{6BF76E92-012B-CD46-AEC2-8D728C5F3AAA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{FA4A2630-0CBF-C54C-B08B-8D125DAE7F63}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{CC9D9F93-7526-6240-8884-845E87A503C7}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{F3CFB448-D373-3E42-8926-239BFDB0D2CB}" name="fecha"/>
@@ -583,25 +574,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{7BE4C68F-6415-EB44-AA47-CABD61470F29}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{FFD60503-35FF-4846-9EF3-53E11E880D72}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{0A23DF46-1103-2040-B061-499C61C15C32}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{59178C0C-9E9C-0F45-A841-E71FCF9473CA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{41C4FA42-C43C-6F49-B1BC-551C789C6BD9}" name="placa"/>
     <tableColumn id="4" xr3:uid="{BCC58C21-84F0-DB40-83B5-22A752457D78}" name="numtarjeta"/>
     <tableColumn id="5" xr3:uid="{09081394-53CE-9A4F-A0EA-06CF1124AACF}" name="fecha"/>
@@ -911,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1032,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1068,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1092,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
@@ -1110,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B192EC-8D93-0348-A356-48BC997BDE79}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1147,13 +1138,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/Documents/GitHub/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDE80E-6101-154E-ACA4-6CCD84B7FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAECB76B-CE12-9A49-A3F4-5505D1FC9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="SucripcionDesdePagos" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>40975127</t>
-  </si>
-  <si>
-    <t>C3O-546</t>
-  </si>
-  <si>
-    <t>04/09/2025</t>
+    <t>72934725</t>
+  </si>
+  <si>
+    <t>XFN-363</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAECB76B-CE12-9A49-A3F4-5505D1FC9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D00DC4-1D14-D149-888E-FE029DFF2E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -83,10 +83,13 @@
     <t>72934725</t>
   </si>
   <si>
-    <t>XFN-363</t>
-  </si>
-  <si>
-    <t>06/11/2025</t>
+    <t>QLY-393</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>XBV-171</t>
   </si>
 </sst>
 </file>
@@ -209,20 +212,6 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -242,7 +231,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -252,6 +243,206 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -274,7 +465,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -288,197 +481,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -548,23 +551,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{DBFAE83E-781F-3F4C-A807-CF4078636BFF}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{E8B7DFC8-A566-8349-937F-5080199F4CDC}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{5116D736-6EED-674E-A8B9-8C2730954785}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{6BF76E92-012B-CD46-AEC2-8D728C5F3AAA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{FA4A2630-0CBF-C54C-B08B-8D125DAE7F63}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{CC9D9F93-7526-6240-8884-845E87A503C7}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{F3CFB448-D373-3E42-8926-239BFDB0D2CB}" name="fecha"/>
@@ -574,25 +577,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{7BE4C68F-6415-EB44-AA47-CABD61470F29}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{FFD60503-35FF-4846-9EF3-53E11E880D72}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{0A23DF46-1103-2040-B061-499C61C15C32}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{59178C0C-9E9C-0F45-A841-E71FCF9473CA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{41C4FA42-C43C-6F49-B1BC-551C789C6BD9}" name="placa"/>
     <tableColumn id="4" xr3:uid="{BCC58C21-84F0-DB40-83B5-22A752457D78}" name="numtarjeta"/>
     <tableColumn id="5" xr3:uid="{09081394-53CE-9A4F-A0EA-06CF1124AACF}" name="fecha"/>
@@ -903,7 +906,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
@@ -1144,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D00DC4-1D14-D149-888E-FE029DFF2E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85204BE8-69CE-4644-BB0A-850F47BE0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>numeroUsuario</t>
   </si>
@@ -80,16 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>72934725</t>
-  </si>
-  <si>
-    <t>QLY-393</t>
-  </si>
-  <si>
-    <t>11/11/2025</t>
-  </si>
-  <si>
-    <t>XBV-171</t>
+    <t>72636759</t>
+  </si>
+  <si>
+    <t>ZIJ-583</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
   </si>
 </sst>
 </file>
@@ -212,6 +209,20 @@
       </font>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -231,9 +242,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -243,206 +252,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -465,9 +274,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -481,7 +288,197 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -551,23 +548,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{DBFAE83E-781F-3F4C-A807-CF4078636BFF}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{E8B7DFC8-A566-8349-937F-5080199F4CDC}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{5116D736-6EED-674E-A8B9-8C2730954785}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{6BF76E92-012B-CD46-AEC2-8D728C5F3AAA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{FA4A2630-0CBF-C54C-B08B-8D125DAE7F63}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{CC9D9F93-7526-6240-8884-845E87A503C7}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{F3CFB448-D373-3E42-8926-239BFDB0D2CB}" name="fecha"/>
@@ -577,25 +574,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{7BE4C68F-6415-EB44-AA47-CABD61470F29}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{FFD60503-35FF-4846-9EF3-53E11E880D72}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{0A23DF46-1103-2040-B061-499C61C15C32}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{59178C0C-9E9C-0F45-A841-E71FCF9473CA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{41C4FA42-C43C-6F49-B1BC-551C789C6BD9}" name="placa"/>
     <tableColumn id="4" xr3:uid="{BCC58C21-84F0-DB40-83B5-22A752457D78}" name="numtarjeta"/>
     <tableColumn id="5" xr3:uid="{09081394-53CE-9A4F-A0EA-06CF1124AACF}" name="fecha"/>
@@ -1086,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
@@ -1147,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85204BE8-69CE-4644-BB0A-850F47BE0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E54E0-4DB8-D143-BE44-D502E5DCE421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -80,13 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>72636759</t>
-  </si>
-  <si>
-    <t>ZIJ-583</t>
-  </si>
-  <si>
-    <t>12/11/2025</t>
+    <t>09873111</t>
+  </si>
+  <si>
+    <t>AUE-180</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
   </si>
 </sst>
 </file>
@@ -255,6 +255,194 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -274,7 +462,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -288,197 +478,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -548,23 +548,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8421684D-64BE-6543-A63D-56478229419C}" name="Tabla3" displayName="Tabla3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{E6064DC8-CBA2-A84F-B806-649A14D552B1}" name="numeroUsuario" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{018C0E61-48B0-A646-A94A-E7D1C21BCCF9}" name="contrasena" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{DBFAE83E-781F-3F4C-A807-CF4078636BFF}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{E8B7DFC8-A566-8349-937F-5080199F4CDC}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{5116D736-6EED-674E-A8B9-8C2730954785}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{6BF76E92-012B-CD46-AEC2-8D728C5F3AAA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B5A739D6-F49A-F449-BA96-CD7CD9B926A1}" name="vigencia" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D6C2317-114B-B444-876F-A6019CE7C09B}" name="Tabla33" displayName="Tabla33" ref="A1:E2" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CFEBED5B-4CF2-734C-8F1F-8C67E15856D9}" name="numeroUsuario" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C7589819-63D7-9F44-B52E-CD8B220C9A8D}" name="contrasena" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{FA4A2630-0CBF-C54C-B08B-8D125DAE7F63}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{CC9D9F93-7526-6240-8884-845E87A503C7}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{F3CFB448-D373-3E42-8926-239BFDB0D2CB}" name="fecha"/>
@@ -574,10 +574,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E671C13A-E0F5-7746-BA44-E7EB257AF42C}" name="Tabla35" displayName="Tabla35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A01F70A4-416E-5743-BDED-2E88A7A73099}" name="numeroUsuario" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{035F75C1-CA17-5B45-9C7A-0C0273709843}" name="contrasena" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{7BE4C68F-6415-EB44-AA47-CABD61470F29}" name="numtarjeta"/>
     <tableColumn id="4" xr3:uid="{FFD60503-35FF-4846-9EF3-53E11E880D72}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{0A23DF46-1103-2040-B061-499C61C15C32}" name="fecha"/>
@@ -589,10 +589,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{41C4FA42-C43C-6F49-B1BC-551C789C6BD9}" name="placa"/>
     <tableColumn id="4" xr3:uid="{BCC58C21-84F0-DB40-83B5-22A752457D78}" name="numtarjeta"/>
     <tableColumn id="5" xr3:uid="{09081394-53CE-9A4F-A0EA-06CF1124AACF}" name="fecha"/>

--- a/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
+++ b/src/test/resources/datadriven/Pagos/Pago_suscripcion_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chm3572/GitChc/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E54E0-4DB8-D143-BE44-D502E5DCE421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3203070-8AC1-C34F-BA9C-030913D0D5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="760" windowWidth="24720" windowHeight="18880" activeTab="3" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
@@ -80,13 +80,13 @@
     <t>4551708161768059</t>
   </si>
   <si>
-    <t>09873111</t>
-  </si>
-  <si>
-    <t>AUE-180</t>
-  </si>
-  <si>
-    <t>02/08/2025</t>
+    <t>72636759</t>
+  </si>
+  <si>
+    <t>XXR-831</t>
+  </si>
+  <si>
+    <t>15/11/2025</t>
   </si>
 </sst>
 </file>
@@ -191,6 +191,20 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -207,20 +221,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -582,7 +582,7 @@
     <tableColumn id="4" xr3:uid="{FFD60503-35FF-4846-9EF3-53E11E880D72}" name="cvv"/>
     <tableColumn id="5" xr3:uid="{0A23DF46-1103-2040-B061-499C61C15C32}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{59178C0C-9E9C-0F45-A841-E71FCF9473CA}" name="placa"/>
-    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0261E340-72A7-D942-BE29-422D98AF00F3}" name="vigencia" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,13 +591,13 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F2048F8A-1C38-3F43-A0B9-9BFDF66F038E}" name="Tabla36" displayName="Tabla36" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{80147162-8028-3C4D-B331-B1972FC11F55}" name="numeroUsuario" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A1A24351-79D8-1749-A982-1EFE88C0BC61}" name="contrasena" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{41C4FA42-C43C-6F49-B1BC-551C789C6BD9}" name="placa"/>
     <tableColumn id="4" xr3:uid="{BCC58C21-84F0-DB40-83B5-22A752457D78}" name="numtarjeta"/>
     <tableColumn id="5" xr3:uid="{09081394-53CE-9A4F-A0EA-06CF1124AACF}" name="fecha"/>
     <tableColumn id="6" xr3:uid="{9CF4AFFF-5DB9-1A45-92E3-82EBB1EACA53}" name="cvv"/>
-    <tableColumn id="7" xr3:uid="{731983DC-97C0-5440-9F93-589F43A65252}" name="vigencia" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{731983DC-97C0-5440-9F93-589F43A65252}" name="vigencia" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
